--- a/Assets/AttendItem.xlsx
+++ b/Assets/AttendItem.xlsx
@@ -24,17 +24,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Jewel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Jewel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_TicketWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_TicketArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,30 +419,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -400,8 +455,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -411,8 +466,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -422,8 +477,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
       <c r="C5">
         <v>250</v>
@@ -433,8 +488,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -444,8 +499,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -455,8 +510,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -466,8 +521,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -477,8 +532,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>5</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -488,8 +543,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -499,8 +554,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12">
         <v>400</v>
@@ -510,8 +565,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
       <c r="C13">
         <v>400</v>
@@ -521,8 +576,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -532,8 +587,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>4</v>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -543,8 +598,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>2</v>
       </c>
       <c r="C16">
         <v>500</v>
@@ -554,8 +609,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>2</v>
       </c>
       <c r="C17">
         <v>500</v>
@@ -565,8 +620,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
       <c r="C18">
         <v>150</v>
@@ -576,8 +631,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
       <c r="C19">
         <v>600</v>
@@ -587,8 +642,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20">
         <v>600</v>
@@ -598,8 +653,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="B21" t="s">
+        <v>14</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -609,8 +664,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>4</v>
+      <c r="B22" t="s">
+        <v>15</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -620,8 +675,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>9</v>
       </c>
       <c r="C23">
         <v>700</v>
@@ -631,8 +686,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>10</v>
       </c>
       <c r="C24">
         <v>700</v>
@@ -642,8 +697,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="B25" t="s">
+        <v>12</v>
       </c>
       <c r="C25">
         <v>500</v>
@@ -653,8 +708,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1000</v>
@@ -664,8 +719,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -675,8 +730,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="s">
+        <v>14</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -686,8 +741,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" t="s">
+        <v>15</v>
       </c>
       <c r="C29">
         <v>10</v>

--- a/Assets/AttendItem.xlsx
+++ b/Assets/AttendItem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,59 +34,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClassName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_Jewel</t>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>GOLD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_Jewel</t>
+    <t>JEWEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_TicketWeapon</t>
+    <t>TICKET_WEAPON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_TicketArmor</t>
+    <t>TICKET_ARMOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +387,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -434,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -445,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -456,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -467,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -478,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>250</v>
@@ -489,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -500,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -511,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -522,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -533,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -544,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -555,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>400</v>
@@ -566,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>400</v>
@@ -577,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -588,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -599,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>500</v>
@@ -610,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>500</v>
@@ -621,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>150</v>
@@ -632,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>600</v>
@@ -643,7 +610,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>600</v>
@@ -654,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -665,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -676,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>700</v>
@@ -687,7 +654,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>700</v>
@@ -698,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>500</v>
@@ -709,7 +676,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>1000</v>
@@ -720,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -731,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -742,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>10</v>
